--- a/Trabajo-Estad/DataFinal.xlsx
+++ b/Trabajo-Estad/DataFinal.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DataFinal" r:id="rId3" sheetId="1"/>
+    <sheet name="var" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -504,7 +504,7 @@
         <v>323000.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.9362642267E10</v>
+        <v>19.36</v>
       </c>
       <c r="I2" t="n">
         <v>8.7</v>
@@ -542,7 +542,7 @@
         <v>8500.0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1861200797470652E10</v>
+        <v>11.86</v>
       </c>
       <c r="I3" t="n">
         <v>5.0</v>
@@ -580,7 +580,7 @@
         <v>317200.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6003384407057184E11</v>
+        <v>160.0</v>
       </c>
       <c r="I4" t="n">
         <v>6.8</v>
@@ -618,7 +618,7 @@
         <v>117000.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0112385109E11</v>
+        <v>101.1</v>
       </c>
       <c r="I5" t="n">
         <v>7.5</v>
@@ -656,7 +656,7 @@
         <v>105450.0</v>
       </c>
       <c r="H6" t="n">
-        <v>5.575313762179669E11</v>
+        <v>557.5</v>
       </c>
       <c r="I6" t="n">
         <v>3.8</v>
@@ -694,7 +694,7 @@
         <v>49100.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0546135160030987E10</v>
+        <v>10.55</v>
       </c>
       <c r="I7" t="n">
         <v>7.0</v>
@@ -732,7 +732,7 @@
         <v>57800.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.2088469937399915E12</v>
+        <v>1209.0</v>
       </c>
       <c r="I8" t="n">
         <v>2.5</v>
@@ -770,7 +770,7 @@
         <v>22400.0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95227684139E11</v>
+        <v>395.2</v>
       </c>
       <c r="I9" t="n">
         <v>1.4</v>
@@ -808,7 +808,7 @@
         <v>81950.0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.786751895719747E10</v>
+        <v>37.87</v>
       </c>
       <c r="I10" t="n">
         <v>8.6</v>
@@ -846,7 +846,7 @@
         <v>19460.0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2250132978723404E10</v>
+        <v>32.25</v>
       </c>
       <c r="I11" t="n">
         <v>8.3</v>
@@ -884,7 +884,7 @@
         <v>220950.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.21415162446E11</v>
+        <v>221.41</v>
       </c>
       <c r="I12" t="n">
         <v>7.6</v>
@@ -922,7 +922,7 @@
         <v>33800.0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.759008656836443E11</v>
+        <v>475.9</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
@@ -960,7 +960,7 @@
         <v>9750.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.182106615259795E10</v>
+        <v>11.82</v>
       </c>
       <c r="I14" t="n">
         <v>5.4</v>
@@ -998,7 +998,7 @@
         <v>71200.0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3941126193921852E10</v>
+        <v>33.94</v>
       </c>
       <c r="I15" t="n">
         <v>6.2</v>
@@ -1036,7 +1036,7 @@
         <v>10500.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.6913330693965273E10</v>
+        <v>16.91</v>
       </c>
       <c r="I16" t="n">
         <v>6.1</v>
@@ -1074,7 +1074,7 @@
         <v>9000.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.564631681833193E10</v>
+        <v>15.64</v>
       </c>
       <c r="I17" t="n">
         <v>4.7</v>
@@ -1112,7 +1112,7 @@
         <v>729500.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.7957001689914932E12</v>
+        <v>1795.7</v>
       </c>
       <c r="I18" t="n">
         <v>6.1</v>
@@ -1150,7 +1150,7 @@
         <v>31300.0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.3785050339366516E10</v>
+        <v>53.78</v>
       </c>
       <c r="I19" t="n">
         <v>3.5</v>
@@ -1188,7 +1188,7 @@
         <v>11450.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.2822558022E10</v>
+        <v>10.87</v>
       </c>
       <c r="I20" t="n">
         <v>4.56</v>
@@ -1226,7 +1226,7 @@
         <v>51050.0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9596409872994313E9</v>
+        <v>2.96</v>
       </c>
       <c r="I21" t="n">
         <v>8.5</v>
@@ -1264,7 +1264,7 @@
         <v>1200.0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.6629986778842537E9</v>
+        <v>20.16</v>
       </c>
       <c r="I22" t="n">
         <v>7.9</v>
@@ -1302,7 +1302,7 @@
         <v>191300.0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.0016747754019234E10</v>
+        <v>32.62</v>
       </c>
       <c r="I23" t="n">
         <v>7.7</v>
@@ -1340,7 +1340,7 @@
         <v>67500.0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.5282432139820796E12</v>
+        <v>1528.24</v>
       </c>
       <c r="I24" t="n">
         <v>1.5</v>
@@ -1378,7 +1378,7 @@
         <v>8150.0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.825018191E9</v>
+        <v>1.82</v>
       </c>
       <c r="I25" t="n">
         <v>6.87</v>
@@ -1416,7 +1416,7 @@
         <v>39850.0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.0097778353765135E10</v>
+        <v>10.09</v>
       </c>
       <c r="I26" t="n">
         <v>9.3</v>
@@ -1454,7 +1454,7 @@
         <v>121900.0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.50440136356127E11</v>
+        <v>250.44</v>
       </c>
       <c r="I27" t="n">
         <v>3.2</v>
@@ -1492,7 +1492,7 @@
         <v>2695000.0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.1233277146512152E13</v>
+        <v>11233.28</v>
       </c>
       <c r="I28" t="n">
         <v>8.7</v>
@@ -1530,7 +1530,7 @@
         <v>481100.0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.82825012368255E11</v>
+        <v>282.82</v>
       </c>
       <c r="I29" t="n">
         <v>7.2</v>
@@ -1568,7 +1568,7 @@
         <v>18550.0</v>
       </c>
       <c r="H30" t="n">
-        <v>5.1596973258889206E10</v>
+        <v>51.6</v>
       </c>
       <c r="I30" t="n">
         <v>3.8</v>
@@ -1606,7 +1606,7 @@
         <v>23200.0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.9509027240272888E11</v>
+        <v>195.09</v>
       </c>
       <c r="I31" t="n">
         <v>2.6</v>
@@ -1644,7 +1644,7 @@
         <v>71050.0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.57047201895607E10</v>
+        <v>75.7</v>
       </c>
       <c r="I32" t="n">
         <v>6.0</v>
@@ -1682,7 +1682,7 @@
         <v>40750.0</v>
       </c>
       <c r="H33" t="n">
-        <v>9.993769599999998E10</v>
+        <v>99.94</v>
       </c>
       <c r="I33" t="n">
         <v>5.2</v>
@@ -1720,7 +1720,7 @@
         <v>835500.0</v>
       </c>
       <c r="H34" t="n">
-        <v>3.329278332780379E11</v>
+        <v>332.93</v>
       </c>
       <c r="I34" t="n">
         <v>9.7</v>
@@ -1758,7 +1758,7 @@
         <v>41500.0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.419144E10</v>
+        <v>24.19</v>
       </c>
       <c r="I35" t="n">
         <v>6.5</v>
@@ -1796,7 +1796,7 @@
         <v>6400.0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.3996451497613937E10</v>
+        <v>24.0</v>
       </c>
       <c r="I36" t="n">
         <v>1.8</v>
@@ -1834,7 +1834,7 @@
         <v>24200.0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.4060790701038336E11</v>
+        <v>240.61</v>
       </c>
       <c r="I37" t="n">
         <v>1.0</v>
@@ -1872,7 +1872,7 @@
         <v>306100.0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.4712856070817163E12</v>
+        <v>2471.28</v>
       </c>
       <c r="I38" t="n">
         <v>2.3</v>
@@ -1910,7 +1910,7 @@
         <v>6700.0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.4023890620338383E10</v>
+        <v>14.02</v>
       </c>
       <c r="I39" t="n">
         <v>7.2</v>
@@ -1948,7 +1948,7 @@
         <v>26050.0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.5141758567E10</v>
+        <v>15.14</v>
       </c>
       <c r="I40" t="n">
         <v>5.8</v>
@@ -1986,7 +1986,7 @@
         <v>179100.0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4667900650118267E12</v>
+        <v>3466.79</v>
       </c>
       <c r="I41" t="n">
         <v>1.3</v>
@@ -2024,7 +2024,7 @@
         <v>15500.0</v>
       </c>
       <c r="H42" t="n">
-        <v>5.500973060003069E10</v>
+        <v>55.01</v>
       </c>
       <c r="I42" t="n">
         <v>5.3</v>
@@ -2062,7 +2062,7 @@
         <v>145350.0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.952224435129373E11</v>
+        <v>195.22</v>
       </c>
       <c r="I43" t="n">
         <v>3.2</v>
@@ -2100,7 +2100,7 @@
         <v>3400.0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.504024213E9</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
         <v>3.6</v>
@@ -2138,7 +2138,7 @@
         <v>200.0</v>
       </c>
       <c r="H45" t="n">
-        <v>7.970649131E9</v>
+        <v>7.97</v>
       </c>
       <c r="I45" t="n">
         <v>7.7</v>
@@ -2176,7 +2176,7 @@
         <v>22700.0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.171762207138165E10</v>
+        <v>21.72</v>
       </c>
       <c r="I46" t="n">
         <v>6.6</v>
@@ -2214,7 +2214,7 @@
         <v>39800.0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.2750747362563211E11</v>
+        <v>127.51</v>
       </c>
       <c r="I47" t="n">
         <v>4.9</v>
@@ -2252,7 +2252,7 @@
         <v>2981050.0</v>
       </c>
       <c r="H48" t="n">
-        <v>2.294797978291985E12</v>
+        <v>2294.8</v>
       </c>
       <c r="I48" t="n">
         <v>6.2</v>
@@ -2290,7 +2290,7 @@
         <v>675500.0</v>
       </c>
       <c r="H49" t="n">
-        <v>9.318773641777417E11</v>
+        <v>931.88</v>
       </c>
       <c r="I49" t="n">
         <v>7.4</v>
@@ -2328,7 +2328,7 @@
         <v>563000.0</v>
       </c>
       <c r="H50" t="n">
-        <v>4.179835782314168E11</v>
+        <v>417.98</v>
       </c>
       <c r="I50" t="n">
         <v>9.5</v>
@@ -2366,7 +2366,7 @@
         <v>209000.0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.74878976034E11</v>
+        <v>174.88</v>
       </c>
       <c r="I51" t="n">
         <v>8.9</v>
@@ -2404,7 +2404,7 @@
         <v>184500.0</v>
       </c>
       <c r="H52" t="n">
-        <v>3.1895059901750586E11</v>
+        <v>318.95</v>
       </c>
       <c r="I52" t="n">
         <v>7.7</v>
@@ -2442,7 +2442,7 @@
         <v>356850.0</v>
       </c>
       <c r="H53" t="n">
-        <v>1.875797463583867E12</v>
+        <v>1875.8</v>
       </c>
       <c r="I53" t="n">
         <v>2.2</v>
@@ -2480,7 +2480,7 @@
         <v>3950.0</v>
       </c>
       <c r="H54" t="n">
-        <v>1.4075894320316559E10</v>
+        <v>14.07</v>
       </c>
       <c r="I54" t="n">
         <v>5.2</v>
@@ -2518,7 +2518,7 @@
         <v>260890.0</v>
       </c>
       <c r="H55" t="n">
-        <v>4.922538141454615E12</v>
+        <v>4927.54</v>
       </c>
       <c r="I55" t="n">
         <v>3.2</v>
@@ -2556,7 +2556,7 @@
         <v>115500.0</v>
       </c>
       <c r="H56" t="n">
-        <v>3.919667605633803E10</v>
+        <v>39.2</v>
       </c>
       <c r="I56" t="n">
         <v>8.0</v>
@@ -2594,7 +2594,7 @@
         <v>70500.0</v>
       </c>
       <c r="H57" t="n">
-        <v>1.3727832008417114E11</v>
+        <v>137.28</v>
       </c>
       <c r="I57" t="n">
         <v>7.4</v>
@@ -2632,7 +2632,7 @@
         <v>29100.0</v>
       </c>
       <c r="H58" t="n">
-        <v>6.918875536429947E10</v>
+        <v>69.19</v>
       </c>
       <c r="I58" t="n">
         <v>7.2</v>
@@ -2670,7 +2670,7 @@
         <v>22600.0</v>
       </c>
       <c r="H59" t="n">
-        <v>1.0941972856669977E11</v>
+        <v>109.42</v>
       </c>
       <c r="I59" t="n">
         <v>7.6</v>
@@ -2708,7 +2708,7 @@
         <v>20400.0</v>
       </c>
       <c r="H60" t="n">
-        <v>6.813092065835074E9</v>
+        <v>6.81</v>
       </c>
       <c r="I60" t="n">
         <v>7.0</v>
@@ -2746,7 +2746,7 @@
         <v>5310.0</v>
       </c>
       <c r="H61" t="n">
-        <v>2.7734140217366367E10</v>
+        <v>27.73</v>
       </c>
       <c r="I61" t="n">
         <v>2.8</v>
@@ -2784,7 +2784,7 @@
         <v>80000.0</v>
       </c>
       <c r="H62" t="n">
-        <v>5.1205122503814255E10</v>
+        <v>51.2</v>
       </c>
       <c r="I62" t="n">
         <v>7.4</v>
@@ -2822,7 +2822,7 @@
         <v>2000.0</v>
       </c>
       <c r="H63" t="n">
-        <v>2.165408361596386E9</v>
+        <v>2.16</v>
       </c>
       <c r="I63" t="n">
         <v>4.7</v>
@@ -2860,7 +2860,7 @@
         <v>2050.0</v>
       </c>
       <c r="H64" t="n">
-        <v>3.2778260000000005E9</v>
+        <v>3.28</v>
       </c>
       <c r="I64" t="n">
         <v>6.7</v>
@@ -2898,7 +2898,7 @@
         <v>29650.0</v>
       </c>
       <c r="H65" t="n">
-        <v>4.302197248482987E10</v>
+        <v>43.02</v>
       </c>
       <c r="I65" t="n">
         <v>2.7</v>
@@ -2936,7 +2936,7 @@
         <v>21600.0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.1848615018413752E10</v>
+        <v>11.85</v>
       </c>
       <c r="I66" t="n">
         <v>5.8</v>
@@ -2974,7 +2974,7 @@
         <v>14900.0</v>
       </c>
       <c r="H67" t="n">
-        <v>5.433040159887466E9</v>
+        <v>5.43</v>
       </c>
       <c r="I67" t="n">
         <v>6.4</v>
@@ -3012,7 +3012,7 @@
         <v>17800.0</v>
       </c>
       <c r="H68" t="n">
-        <v>1.4020002871028166E10</v>
+        <v>14.02</v>
       </c>
       <c r="I68" t="n">
         <v>7.0</v>
@@ -3050,7 +3050,7 @@
         <v>20850.0</v>
       </c>
       <c r="H69" t="n">
-        <v>6.398744505081292E9</v>
+        <v>6.4</v>
       </c>
       <c r="I69" t="n">
         <v>8.1</v>
@@ -3088,7 +3088,7 @@
         <v>2550.0</v>
       </c>
       <c r="H70" t="n">
-        <v>1.223246365557272E10</v>
+        <v>12.23</v>
       </c>
       <c r="I70" t="n">
         <v>3.6</v>
@@ -3126,7 +3126,7 @@
         <v>336050.0</v>
       </c>
       <c r="H71" t="n">
-        <v>1.0779036181760708E12</v>
+        <v>1077.9</v>
       </c>
       <c r="I71" t="n">
         <v>6.2</v>
@@ -3164,7 +3164,7 @@
         <v>17500.0</v>
       </c>
       <c r="H72" t="n">
-        <v>1.1186734674384686E10</v>
+        <v>11.19</v>
       </c>
       <c r="I72" t="n">
         <v>4.7</v>
@@ -3202,7 +3202,7 @@
         <v>12050.0</v>
       </c>
       <c r="H73" t="n">
-        <v>4.377033429267213E9</v>
+        <v>4.38</v>
       </c>
       <c r="I73" t="n">
         <v>4.1</v>
@@ -3240,7 +3240,7 @@
         <v>245800.0</v>
       </c>
       <c r="H74" t="n">
-        <v>1.0331164924802449E11</v>
+        <v>103.31</v>
       </c>
       <c r="I74" t="n">
         <v>7.0</v>
@@ -3278,7 +3278,7 @@
         <v>11200.0</v>
       </c>
       <c r="H75" t="n">
-        <v>1.1936999283179132E10</v>
+        <v>11.94</v>
       </c>
       <c r="I75" t="n">
         <v>5.8</v>
@@ -3316,7 +3316,7 @@
         <v>15900.0</v>
       </c>
       <c r="H76" t="n">
-        <v>1.066563466088328E10</v>
+        <v>10.66</v>
       </c>
       <c r="I76" t="n">
         <v>4.0</v>
@@ -3354,7 +3354,7 @@
         <v>158600.0</v>
       </c>
       <c r="H77" t="n">
-        <v>2.1185922407592155E10</v>
+        <v>21.18</v>
       </c>
       <c r="I77" t="n">
         <v>7.4</v>
@@ -3392,7 +3392,7 @@
         <v>41310.0</v>
       </c>
       <c r="H78" t="n">
-        <v>7.835281817045667E11</v>
+        <v>783.53</v>
       </c>
       <c r="I78" t="n">
         <v>1.1</v>
@@ -3430,7 +3430,7 @@
         <v>9000.0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.882236647465237E11</v>
+        <v>188.22</v>
       </c>
       <c r="I79" t="n">
         <v>0.7</v>
@@ -3468,7 +3468,7 @@
         <v>12000.0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.3286048705495966E10</v>
+        <v>13.29</v>
       </c>
       <c r="I80" t="n">
         <v>5.4</v>
@@ -3506,7 +3506,7 @@
         <v>10700.0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.028462719E10</v>
+        <v>10.29</v>
       </c>
       <c r="I81" t="n">
         <v>9.1</v>
@@ -3544,7 +3544,7 @@
         <v>23950.0</v>
       </c>
       <c r="H82" t="n">
-        <v>3.6881992954219415E11</v>
+        <v>368.82</v>
       </c>
       <c r="I82" t="n">
         <v>1.6</v>
@@ -3582,7 +3582,7 @@
         <v>47000.0</v>
       </c>
       <c r="H83" t="n">
-        <v>6.5481144343302986E10</v>
+        <v>65.48</v>
       </c>
       <c r="I83" t="n">
         <v>7.4</v>
@@ -3620,7 +3620,7 @@
         <v>935800.0</v>
       </c>
       <c r="H84" t="n">
-        <v>2.786546377376899E11</v>
+        <v>278.65</v>
       </c>
       <c r="I84" t="n">
         <v>8.2</v>
@@ -3658,7 +3658,7 @@
         <v>22050.0</v>
       </c>
       <c r="H85" t="n">
-        <v>5.790769999999999E10</v>
+        <v>57.91</v>
       </c>
       <c r="I85" t="n">
         <v>4.5</v>
@@ -3696,7 +3696,7 @@
         <v>3600.0</v>
       </c>
       <c r="H86" t="n">
-        <v>2.0759069103E10</v>
+        <v>20.76</v>
       </c>
       <c r="I86" t="n">
         <v>7.1</v>
@@ -3734,7 +3734,7 @@
         <v>25450.0</v>
       </c>
       <c r="H87" t="n">
-        <v>3.605428157239815E10</v>
+        <v>36.05</v>
       </c>
       <c r="I87" t="n">
         <v>6.1</v>
@@ -3772,7 +3772,7 @@
         <v>158000.0</v>
       </c>
       <c r="H88" t="n">
-        <v>1.918959438238867E11</v>
+        <v>191.9</v>
       </c>
       <c r="I88" t="n">
         <v>4.5</v>
@@ -3810,7 +3810,7 @@
         <v>165500.0</v>
       </c>
       <c r="H89" t="n">
-        <v>3.186270039654927E11</v>
+        <v>318.63</v>
       </c>
       <c r="I89" t="n">
         <v>5.6</v>
@@ -3848,7 +3848,7 @@
         <v>178400.0</v>
       </c>
       <c r="H90" t="n">
-        <v>4.7203713097291266E11</v>
+        <v>472.04</v>
       </c>
       <c r="I90" t="n">
         <v>2.9</v>
@@ -3886,7 +3886,7 @@
         <v>74500.0</v>
       </c>
       <c r="H91" t="n">
-        <v>2.0628602278189377E11</v>
+        <v>206.29</v>
       </c>
       <c r="I91" t="n">
         <v>2.0</v>
@@ -3924,7 +3924,7 @@
         <v>149200.0</v>
       </c>
       <c r="H92" t="n">
-        <v>1.8849413677571936E11</v>
+        <v>188.49</v>
       </c>
       <c r="I92" t="n">
         <v>3.9</v>
@@ -3962,7 +3962,7 @@
         <v>1454000.0</v>
       </c>
       <c r="H93" t="n">
-        <v>1.2767869792218135E12</v>
+        <v>1276.79</v>
       </c>
       <c r="I93" t="n">
         <v>9.4</v>
@@ -4000,7 +4000,7 @@
         <v>251500.0</v>
       </c>
       <c r="H94" t="n">
-        <v>6.4493554144E11</v>
+        <v>644.93</v>
       </c>
       <c r="I94" t="n">
         <v>8.9</v>
@@ -4038,7 +4038,7 @@
         <v>18600.0</v>
       </c>
       <c r="H95" t="n">
-        <v>1.904031281513371E10</v>
+        <v>19.04</v>
       </c>
       <c r="I95" t="n">
         <v>6.2</v>
@@ -4076,7 +4076,7 @@
         <v>31850.0</v>
       </c>
       <c r="H96" t="n">
-        <v>4.063039201854097E10</v>
+        <v>40.63</v>
       </c>
       <c r="I96" t="n">
         <v>4.6</v>
@@ -4114,7 +4114,7 @@
         <v>8500.0</v>
       </c>
       <c r="H97" t="n">
-        <v>3.67479453E9</v>
+        <v>3.67</v>
       </c>
       <c r="I97" t="n">
         <v>5.5</v>
@@ -4152,7 +4152,7 @@
         <v>147600.0</v>
       </c>
       <c r="H98" t="n">
-        <v>3.186523344191097E11</v>
+        <v>318.65</v>
       </c>
       <c r="I98" t="n">
         <v>4.3</v>
@@ -4190,7 +4190,7 @@
         <v>15850.0</v>
       </c>
       <c r="H99" t="n">
-        <v>8.9640616271E10</v>
+        <v>89.64</v>
       </c>
       <c r="I99" t="n">
         <v>2.7</v>
@@ -4228,7 +4228,7 @@
         <v>13200.0</v>
       </c>
       <c r="H100" t="n">
-        <v>4.46515372599731E10</v>
+        <v>44.65</v>
       </c>
       <c r="I100" t="n">
         <v>1.7</v>
@@ -4266,7 +4266,7 @@
         <v>81400.0</v>
       </c>
       <c r="H101" t="n">
-        <v>2.963572827151093E11</v>
+        <v>296.36</v>
       </c>
       <c r="I101" t="n">
         <v>4.4</v>
@@ -4304,7 +4304,7 @@
         <v>197950.0</v>
       </c>
       <c r="H102" t="n">
-        <v>1.2320760173615305E12</v>
+        <v>1232.08</v>
       </c>
       <c r="I102" t="n">
         <v>2.0</v>
@@ -4342,7 +4342,7 @@
         <v>305200.0</v>
       </c>
       <c r="H103" t="n">
-        <v>8.24010387095356E10</v>
+        <v>82.4</v>
       </c>
       <c r="I103" t="n">
         <v>8.5</v>
@@ -4380,7 +4380,7 @@
         <v>124300.0</v>
       </c>
       <c r="H104" t="n">
-        <v>5.1772232495E10</v>
+        <v>51.77</v>
       </c>
       <c r="I104" t="n">
         <v>9.3</v>
@@ -4418,7 +4418,7 @@
         <v>30550.0</v>
       </c>
       <c r="H105" t="n">
-        <v>5.1565467146954694E11</v>
+        <v>515.65</v>
       </c>
       <c r="I105" t="n">
         <v>1.3</v>
@@ -4456,7 +4456,7 @@
         <v>20950.0</v>
       </c>
       <c r="H106" t="n">
-        <v>6.71309197376701E11</v>
+        <v>671.31</v>
       </c>
       <c r="I106" t="n">
         <v>2.0</v>
@@ -4494,7 +4494,7 @@
         <v>28400.0</v>
       </c>
       <c r="H107" t="n">
-        <v>4.9774021003E10</v>
+        <v>49.77</v>
       </c>
       <c r="I107" t="n">
         <v>6.1</v>
@@ -4532,7 +4532,7 @@
         <v>134250.0</v>
       </c>
       <c r="H108" t="n">
-        <v>3.713479997452249E10</v>
+        <v>37.13</v>
       </c>
       <c r="I108" t="n">
         <v>10.0</v>
@@ -4570,7 +4570,7 @@
         <v>1348400.0</v>
       </c>
       <c r="H109" t="n">
-        <v>1.8707188235E13</v>
+        <v>18707.19</v>
       </c>
       <c r="I109" t="n">
         <v>3.4</v>
@@ -4608,7 +4608,7 @@
         <v>47800.0</v>
       </c>
       <c r="H110" t="n">
-        <v>4.18012104283054E10</v>
+        <v>41.8</v>
       </c>
       <c r="I110" t="n">
         <v>6.7</v>
@@ -4646,7 +4646,7 @@
         <v>512000.0</v>
       </c>
       <c r="H111" t="n">
-        <v>8.637216480580114E11</v>
+        <v>863.72</v>
       </c>
       <c r="I111" t="n">
         <v>7.4</v>
@@ -4684,7 +4684,7 @@
         <v>46400.0</v>
       </c>
       <c r="H112" t="n">
-        <v>2.8967460677E10</v>
+        <v>28.97</v>
       </c>
       <c r="I112" t="n">
         <v>8.0</v>
@@ -4722,7 +4722,7 @@
         <v>292000.0</v>
       </c>
       <c r="H113" t="n">
-        <v>9.335599362850423E10</v>
+        <v>93.35</v>
       </c>
       <c r="I113" t="n">
         <v>6.2</v>
@@ -4760,7 +4760,7 @@
         <v>150250.0</v>
       </c>
       <c r="H114" t="n">
-        <v>2.694283209613294E12</v>
+        <v>2694.28</v>
       </c>
       <c r="I114" t="n">
         <v>1.9</v>
@@ -4798,7 +4798,7 @@
         <v>16500.0</v>
       </c>
       <c r="H115" t="n">
-        <v>2.0954761767158623E10</v>
+        <v>20.95</v>
       </c>
       <c r="I115" t="n">
         <v>7.1</v>
@@ -4836,7 +4836,7 @@
         <v>50800.0</v>
       </c>
       <c r="H116" t="n">
-        <v>2.0548678100000004E10</v>
+        <v>20.55</v>
       </c>
       <c r="I116" t="n">
         <v>8.4</v>
